--- a/Figure 10 - NPI Front Fits/temp.xlsx
+++ b/Figure 10 - NPI Front Fits/temp.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25203"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14660" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="36500" windowHeight="23760" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="SST18latsMarch.txt" sheetId="1" r:id="rId1"/>
@@ -486,8 +486,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2112134904"/>
-        <c:axId val="-2116721672"/>
+        <c:axId val="-2135303096"/>
+        <c:axId val="-2135347272"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -558,11 +558,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2119121352"/>
-        <c:axId val="-2118518280"/>
+        <c:axId val="-2138957064"/>
+        <c:axId val="2117825880"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2112134904"/>
+        <c:axId val="-2135303096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -572,7 +572,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2116721672"/>
+        <c:crossAx val="-2135347272"/>
         <c:crossesAt val="-2.0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -580,7 +580,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2116721672"/>
+        <c:axId val="-2135347272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -591,12 +591,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2112134904"/>
+        <c:crossAx val="-2135303096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2118518280"/>
+        <c:axId val="2117825880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -606,12 +606,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2119121352"/>
+        <c:crossAx val="-2138957064"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2119121352"/>
+        <c:axId val="-2138957064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -620,7 +620,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118518280"/>
+        <c:crossAx val="2117825880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -780,11 +780,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2120151064"/>
-        <c:axId val="-2113788648"/>
+        <c:axId val="2052135160"/>
+        <c:axId val="2052132296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2120151064"/>
+        <c:axId val="2052135160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -794,12 +794,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2113788648"/>
+        <c:crossAx val="2052132296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2113788648"/>
+        <c:axId val="2052132296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -810,7 +810,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2120151064"/>
+        <c:crossAx val="2052135160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -960,11 +960,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2111882136"/>
-        <c:axId val="-2118645416"/>
+        <c:axId val="2052086776"/>
+        <c:axId val="2052081464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2111882136"/>
+        <c:axId val="2052086776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="28.0"/>
@@ -994,12 +994,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2118645416"/>
+        <c:crossAx val="2052081464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2118645416"/>
+        <c:axId val="2052081464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="28.0"/>
@@ -1030,7 +1030,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2111882136"/>
+        <c:crossAx val="2052086776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1153,8 +1153,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2115196504"/>
-        <c:axId val="-2123589768"/>
+        <c:axId val="1793477544"/>
+        <c:axId val="1793480520"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1240,11 +1240,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2115917016"/>
-        <c:axId val="-2115841592"/>
+        <c:axId val="1793486856"/>
+        <c:axId val="1793483560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2115196504"/>
+        <c:axId val="1793477544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1253,7 +1253,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2123589768"/>
+        <c:crossAx val="1793480520"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1261,7 +1261,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2123589768"/>
+        <c:axId val="1793480520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1272,12 +1272,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115196504"/>
+        <c:crossAx val="1793477544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2115841592"/>
+        <c:axId val="1793483560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1287,12 +1287,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115917016"/>
+        <c:crossAx val="1793486856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="-2115917016"/>
+        <c:axId val="1793486856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1301,7 +1301,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115841592"/>
+        <c:crossAx val="1793483560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1493,11 +1493,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2115152344"/>
-        <c:axId val="-2115572056"/>
+        <c:axId val="1793512920"/>
+        <c:axId val="1793515784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2115152344"/>
+        <c:axId val="1793512920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1507,12 +1507,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115572056"/>
+        <c:crossAx val="1793515784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2115572056"/>
+        <c:axId val="1793515784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1523,7 +1523,218 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2115152344"/>
+        <c:crossAx val="1793512920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>1005.48</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1009.45</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1008.45</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1007.08</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1009.2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1005.06</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1008.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1008.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1010.11</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1009.83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1009.3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1013.47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1006.49</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1011.13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1010.33</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1010.31</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1009.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>30.22</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33.27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.47</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.52</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>32.56</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33.32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.95</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>36.48</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>30.38</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>33.9</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>34.65</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>35.55</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>33.51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2052436760"/>
+        <c:axId val="2052405288"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2052436760"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2052405288"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2052405288"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="30.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2052436760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1674,16 +1885,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>749300</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1697,6 +1908,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>482600</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2680,7 +2921,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H18"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
